--- a/crawl_results/columbia.xlsx
+++ b/crawl_results/columbia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:F1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,6 +460,96 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>13356</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Introduction to Sustainable Production o</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>TR 1:10pm-2:25pm</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nagaraj Devarayasamudram</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>18754</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Introduction to Sustainable Production o</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nagaraj Devarayasamudram</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>TBA</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>14052</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EAST/WEST FRAMETALE NARRATIVES</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Patricia E Grieve</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>R 2:10pm-4:00pm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/crawl_results/columbia.xlsx
+++ b/crawl_results/columbia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,17 +476,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Nagaraj Devarayasamudram</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>TR 1:10pm-2:25pm</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Nagaraj Devarayasamudram</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>TBA</t>
         </is>
       </c>
     </row>
@@ -547,6 +547,66 @@
       <c r="F4" t="inlineStr">
         <is>
           <t>R 2:10pm-4:00pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16174</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Mobility and Enclosure, Statelessness an</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Stathis Gourgouris</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>W 2:10pm-4:00pm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15073</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Planning and Programming An Exhibition,</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anne Higonnet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>W 10:10am-12:00pm</t>
         </is>
       </c>
     </row>
